--- a/data-xy.xlsx
+++ b/data-xy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\68596\Documents\GitHub\r-irg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC75FBE9-B603-480E-A2AD-3EA931B06B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40999F2-CA3C-401F-BD18-B608D7636510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{69CA5BC2-74B1-44CD-8281-76BB79FDAAC5}"/>
   </bookViews>
@@ -36,12 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>Tails</t>
+  </si>
+  <si>
+    <t>Heads</t>
   </si>
 </sst>
 </file>
@@ -392,100 +401,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5660808-D5CF-4AFB-8D20-BB4D2011DE1E}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2.5</v>
-      </c>
-      <c r="B3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>6.5</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C8">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B7">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7.1</v>
-      </c>
-      <c r="B8">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6.8</v>
-      </c>
-      <c r="B9">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>3.3</v>
-      </c>
-      <c r="B10">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1.5</v>
+      <c r="C10">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>3.8</v>
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>4.1500000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/data-xy.xlsx
+++ b/data-xy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\68596\Documents\GitHub\r-irg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40999F2-CA3C-401F-BD18-B608D7636510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A40D705-FD85-437F-9039-F40273268E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{69CA5BC2-74B1-44CD-8281-76BB79FDAAC5}"/>
   </bookViews>
